--- a/data/annotation/product_ma.xlsx
+++ b/data/annotation/product_ma.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH_STUDENTS\ken\multimodal_docs\full_scale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiayewken/Downloads/Projects/Work/MultimodalFinance/data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747D94BE-6905-417A-BCD9-3B224BCD023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87053D22-4160-D24F-9543-E7516F953295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="765">
   <si>
     <t>data_file</t>
   </si>
@@ -2412,6 +2422,9 @@
   <si>
     <t>check2: quesiton includes the info in the category so can be asnwered without refering to content</t>
   </si>
+  <si>
+    <t>valid</t>
+  </si>
 </sst>
 </file>
 
@@ -2429,17 +2442,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2524,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2545,14 +2561,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2855,26 +2868,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V163" sqref="V163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="54.7265625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2905,8 +2918,11 @@
       <c r="J1" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2934,8 +2950,12 @@
       <c r="I2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S2">
+        <f>INT(AND(F2="yes", G2="yes", H2="yes",I2="yes"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2963,11 +2983,15 @@
       <c r="I3" t="s">
         <v>723</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="0">INT(AND(F3="yes", G3="yes", H3="yes",I3="yes"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2995,8 +3019,12 @@
       <c r="I4" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3024,8 +3052,12 @@
       <c r="I5" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3053,8 +3085,12 @@
       <c r="I6" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3082,8 +3118,12 @@
       <c r="I7" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3111,8 +3151,12 @@
       <c r="I8" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3140,8 +3184,12 @@
       <c r="I9" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3169,8 +3217,12 @@
       <c r="I10" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3198,8 +3250,12 @@
       <c r="I11" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3227,8 +3283,12 @@
       <c r="I12" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3256,8 +3316,12 @@
       <c r="I13" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3285,8 +3349,12 @@
       <c r="I14" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3314,8 +3382,12 @@
       <c r="I15" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3343,8 +3415,12 @@
       <c r="I16" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3372,8 +3448,12 @@
       <c r="I17" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3401,8 +3481,12 @@
       <c r="I18" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3430,8 +3514,12 @@
       <c r="I19" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3459,8 +3547,12 @@
       <c r="I20" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3488,11 +3580,15 @@
       <c r="I21" t="s">
         <v>722</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3520,8 +3616,12 @@
       <c r="I22" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3549,8 +3649,12 @@
       <c r="I23" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3578,8 +3682,12 @@
       <c r="I24" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3607,8 +3715,12 @@
       <c r="I25" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3636,8 +3748,12 @@
       <c r="I26" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3665,8 +3781,12 @@
       <c r="I27" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3694,11 +3814,15 @@
       <c r="I28" t="s">
         <v>722</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3726,8 +3850,12 @@
       <c r="I29" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3755,11 +3883,15 @@
       <c r="I30" t="s">
         <v>722</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3787,8 +3919,12 @@
       <c r="I31" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3816,8 +3952,12 @@
       <c r="I32" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3845,11 +3985,15 @@
       <c r="I33" t="s">
         <v>722</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3877,8 +4021,12 @@
       <c r="I34" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3906,8 +4054,12 @@
       <c r="I35" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3935,11 +4087,15 @@
       <c r="I36" t="s">
         <v>722</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3967,8 +4123,12 @@
       <c r="I37" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3996,8 +4156,12 @@
       <c r="I38" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -4025,11 +4189,15 @@
       <c r="I39" t="s">
         <v>723</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -4057,11 +4225,15 @@
       <c r="I40" t="s">
         <v>722</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="290" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="320" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -4092,8 +4264,12 @@
       <c r="J41" s="5" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4121,8 +4297,12 @@
       <c r="I42" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -4150,8 +4330,12 @@
       <c r="I43" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -4179,8 +4363,12 @@
       <c r="I44" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -4208,8 +4396,12 @@
       <c r="I45" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -4237,8 +4429,12 @@
       <c r="I46" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -4266,8 +4462,12 @@
       <c r="I47" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4298,8 +4498,12 @@
       <c r="J48" s="5" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -4327,8 +4531,12 @@
       <c r="I49" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -4356,8 +4564,12 @@
       <c r="I50" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -4385,11 +4597,15 @@
       <c r="I51" t="s">
         <v>722</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="8" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -4417,8 +4633,12 @@
       <c r="I52" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -4446,11 +4666,15 @@
       <c r="I53" t="s">
         <v>723</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -4478,8 +4702,12 @@
       <c r="I54" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4507,8 +4735,12 @@
       <c r="I55" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4536,11 +4768,15 @@
       <c r="I56" t="s">
         <v>722</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -4568,8 +4804,12 @@
       <c r="I57" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4597,11 +4837,15 @@
       <c r="I58" t="s">
         <v>723</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4629,8 +4873,12 @@
       <c r="I59" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -4658,8 +4906,12 @@
       <c r="I60" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -4687,8 +4939,12 @@
       <c r="I61" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -4716,8 +4972,12 @@
       <c r="I62" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -4745,8 +5005,12 @@
       <c r="I63" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -4774,8 +5038,12 @@
       <c r="I64" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -4803,8 +5071,12 @@
       <c r="I65" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -4832,8 +5104,12 @@
       <c r="I66" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -4861,11 +5137,15 @@
       <c r="I67" t="s">
         <v>722</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S67">
+        <f t="shared" ref="S67:S130" si="1">INT(AND(F67="yes", G67="yes", H67="yes",I67="yes"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -4893,8 +5173,12 @@
       <c r="I68" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -4922,8 +5206,12 @@
       <c r="I69" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -4951,11 +5239,15 @@
       <c r="I70" t="s">
         <v>722</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -4983,8 +5275,12 @@
       <c r="I71" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -5012,8 +5308,12 @@
       <c r="I72" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -5041,11 +5341,15 @@
       <c r="I73" t="s">
         <v>722</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5073,8 +5377,12 @@
       <c r="I74" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -5102,8 +5410,12 @@
       <c r="I75" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -5131,11 +5443,15 @@
       <c r="I76" t="s">
         <v>722</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -5163,8 +5479,12 @@
       <c r="I77" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -5192,11 +5512,15 @@
       <c r="I78" t="s">
         <v>723</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -5224,11 +5548,15 @@
       <c r="I79" t="s">
         <v>722</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -5256,11 +5584,15 @@
       <c r="I80" t="s">
         <v>723</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -5288,8 +5620,12 @@
       <c r="I81" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -5317,8 +5653,12 @@
       <c r="I82" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -5346,8 +5686,12 @@
       <c r="I83" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -5375,8 +5719,12 @@
       <c r="I84" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -5404,8 +5752,12 @@
       <c r="I85" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -5433,11 +5785,15 @@
       <c r="I86" t="s">
         <v>723</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -5465,11 +5821,15 @@
       <c r="I87" t="s">
         <v>722</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -5497,8 +5857,12 @@
       <c r="I88" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -5526,11 +5890,15 @@
       <c r="I89" t="s">
         <v>722</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -5558,11 +5926,15 @@
       <c r="I90" t="s">
         <v>722</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -5590,11 +5962,15 @@
       <c r="I91" t="s">
         <v>722</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -5622,8 +5998,12 @@
       <c r="I92" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="S92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -5651,11 +6031,15 @@
       <c r="I93" t="s">
         <v>722</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -5683,8 +6067,12 @@
       <c r="I94" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -5712,11 +6100,15 @@
       <c r="I95" t="s">
         <v>722</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -5744,11 +6136,15 @@
       <c r="I96" t="s">
         <v>722</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -5776,11 +6172,15 @@
       <c r="I97" t="s">
         <v>722</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -5808,8 +6208,12 @@
       <c r="I98" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -5837,8 +6241,12 @@
       <c r="I99" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -5866,8 +6274,12 @@
       <c r="I100" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -5895,8 +6307,12 @@
       <c r="I101" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -5924,11 +6340,15 @@
       <c r="I102" t="s">
         <v>723</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -5956,8 +6376,12 @@
       <c r="I103" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -5985,8 +6409,12 @@
       <c r="I104" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -6014,8 +6442,12 @@
       <c r="I105" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6043,11 +6475,15 @@
       <c r="I106" t="s">
         <v>723</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6075,8 +6511,12 @@
       <c r="I107" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -6104,8 +6544,12 @@
       <c r="I108" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -6133,8 +6577,12 @@
       <c r="I109" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="S109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -6162,8 +6610,12 @@
       <c r="I110" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -6191,8 +6643,12 @@
       <c r="I111" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -6220,8 +6676,12 @@
       <c r="I112" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -6249,8 +6709,12 @@
       <c r="I113" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -6278,8 +6742,12 @@
       <c r="I114" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -6307,43 +6775,51 @@
       <c r="I115" t="s">
         <v>722</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="11" t="s">
+      <c r="S115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="J116" s="13" t="s">
+      <c r="J116" s="9" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -6371,8 +6847,12 @@
       <c r="I117" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -6400,8 +6880,12 @@
       <c r="I118" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -6429,8 +6913,12 @@
       <c r="I119" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -6458,8 +6946,12 @@
       <c r="I120" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -6487,8 +6979,12 @@
       <c r="I121" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -6516,8 +7012,12 @@
       <c r="I122" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -6545,8 +7045,12 @@
       <c r="I123" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -6574,11 +7078,15 @@
       <c r="I124" t="s">
         <v>722</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J124" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -6606,11 +7114,15 @@
       <c r="I125" t="s">
         <v>722</v>
       </c>
-      <c r="J125" s="8" t="s">
+      <c r="J125" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -6638,8 +7150,12 @@
       <c r="I126" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -6667,8 +7183,12 @@
       <c r="I127" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -6696,8 +7216,12 @@
       <c r="I128" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -6725,8 +7249,12 @@
       <c r="I129" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -6754,8 +7282,12 @@
       <c r="I130" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -6783,8 +7315,12 @@
       <c r="I131" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S131">
+        <f t="shared" ref="S131:S181" si="2">INT(AND(F131="yes", G131="yes", H131="yes",I131="yes"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -6812,8 +7348,12 @@
       <c r="I132" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -6841,8 +7381,12 @@
       <c r="I133" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -6870,8 +7414,12 @@
       <c r="I134" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -6899,8 +7447,12 @@
       <c r="I135" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -6928,8 +7480,12 @@
       <c r="I136" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -6957,8 +7513,12 @@
       <c r="I137" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -6986,11 +7546,15 @@
       <c r="I138" t="s">
         <v>722</v>
       </c>
-      <c r="J138" s="8" t="s">
+      <c r="J138" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -7018,8 +7582,12 @@
       <c r="I139" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7047,8 +7615,12 @@
       <c r="I140" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -7076,8 +7648,12 @@
       <c r="I141" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7105,8 +7681,12 @@
       <c r="I142" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -7134,8 +7714,12 @@
       <c r="I143" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -7163,8 +7747,12 @@
       <c r="I144" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -7192,8 +7780,12 @@
       <c r="I145" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -7221,8 +7813,12 @@
       <c r="I146" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -7250,8 +7846,12 @@
       <c r="I147" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -7279,8 +7879,12 @@
       <c r="I148" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="S148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -7308,8 +7912,12 @@
       <c r="I149" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -7337,8 +7945,12 @@
       <c r="I150" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -7366,8 +7978,12 @@
       <c r="I151" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -7395,8 +8011,12 @@
       <c r="I152" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -7424,8 +8044,12 @@
       <c r="I153" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -7453,8 +8077,12 @@
       <c r="I154" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -7482,8 +8110,12 @@
       <c r="I155" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -7511,8 +8143,12 @@
       <c r="I156" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="S156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -7540,8 +8176,12 @@
       <c r="I157" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -7569,8 +8209,12 @@
       <c r="I158" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -7598,11 +8242,15 @@
       <c r="I159" t="s">
         <v>722</v>
       </c>
-      <c r="J159" s="8" t="s">
+      <c r="J159" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -7630,8 +8278,12 @@
       <c r="I160" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -7659,8 +8311,12 @@
       <c r="I161" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -7688,11 +8344,15 @@
       <c r="I162" t="s">
         <v>723</v>
       </c>
-      <c r="J162" s="8" t="s">
+      <c r="J162" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -7720,8 +8380,12 @@
       <c r="I163" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -7749,8 +8413,12 @@
       <c r="I164" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -7778,8 +8446,12 @@
       <c r="I165" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -7807,8 +8479,12 @@
       <c r="I166" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -7836,8 +8512,12 @@
       <c r="I167" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -7865,8 +8545,12 @@
       <c r="I168" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -7894,8 +8578,12 @@
       <c r="I169" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -7923,8 +8611,12 @@
       <c r="I170" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -7952,8 +8644,12 @@
       <c r="I171" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -7981,8 +8677,12 @@
       <c r="I172" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -8010,8 +8710,12 @@
       <c r="I173" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -8039,8 +8743,12 @@
       <c r="I174" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -8068,8 +8776,12 @@
       <c r="I175" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -8097,8 +8809,12 @@
       <c r="I176" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="S176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -8126,8 +8842,12 @@
       <c r="I177" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -8155,8 +8875,12 @@
       <c r="I178" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -8184,8 +8908,12 @@
       <c r="I179" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="S179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -8213,8 +8941,12 @@
       <c r="I180" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="S180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>5</v>
       </c>
@@ -8242,9 +8974,12 @@
       <c r="I181" t="s">
         <v>722</v>
       </c>
-      <c r="J181" s="9"/>
-    </row>
-    <row r="182" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="S181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -8261,7 +8996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -8278,7 +9013,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -8295,7 +9030,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -8312,7 +9047,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -8329,7 +9064,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -8346,7 +9081,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -8363,7 +9098,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -8380,7 +9115,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -8397,7 +9132,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -8414,7 +9149,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -8431,7 +9166,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -8448,7 +9183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -8465,7 +9200,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -8482,7 +9217,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -8499,7 +9234,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -8516,7 +9251,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -8533,7 +9268,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +9285,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -8567,7 +9302,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -8584,7 +9319,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -8601,7 +9336,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -8618,7 +9353,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -8635,7 +9370,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +9387,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -8669,7 +9404,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -8686,7 +9421,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -8703,7 +9438,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +9455,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -8737,7 +9472,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -8754,7 +9489,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -8771,7 +9506,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -8788,7 +9523,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -8805,7 +9540,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -8822,7 +9557,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -8839,7 +9574,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -8856,7 +9591,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -8873,7 +9608,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -8890,7 +9625,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -8907,7 +9642,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -8924,7 +9659,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -8941,7 +9676,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -8958,7 +9693,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -8975,7 +9710,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -8992,7 +9727,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -9009,7 +9744,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -9026,7 +9761,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9778,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -9060,7 +9795,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -9077,7 +9812,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -9094,7 +9829,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -9111,7 +9846,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -9128,7 +9863,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -9145,7 +9880,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -9162,7 +9897,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -9179,7 +9914,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -9196,7 +9931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -9213,7 +9948,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -9230,7 +9965,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -9247,7 +9982,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -9264,7 +9999,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -9281,7 +10016,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -9298,7 +10033,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -9315,7 +10050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -9332,7 +10067,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -9349,7 +10084,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -9366,7 +10101,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -9383,7 +10118,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -9400,7 +10135,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -9417,7 +10152,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -9434,7 +10169,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -9451,7 +10186,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -9468,7 +10203,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -9485,7 +10220,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -9502,7 +10237,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -9519,7 +10254,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -9536,7 +10271,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -9553,7 +10288,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -9570,7 +10305,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -9587,7 +10322,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -9604,7 +10339,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -9621,7 +10356,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -9638,7 +10373,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -9655,7 +10390,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -9672,7 +10407,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -9689,7 +10424,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -9706,7 +10441,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -9723,7 +10458,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -9740,7 +10475,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -9757,7 +10492,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -9774,7 +10509,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -9791,7 +10526,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -9808,7 +10543,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -9825,7 +10560,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -9842,7 +10577,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -9859,7 +10594,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -9876,7 +10611,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -9893,7 +10628,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -9910,7 +10645,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -9927,7 +10662,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -9944,7 +10679,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -9961,7 +10696,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -9978,7 +10713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -9995,7 +10730,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -10012,7 +10747,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -10029,7 +10764,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -10046,7 +10781,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -10063,7 +10798,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -10080,7 +10815,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -10097,7 +10832,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -10114,7 +10849,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -10131,7 +10866,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -10148,7 +10883,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -10165,7 +10900,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -10182,7 +10917,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -10199,7 +10934,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -10216,7 +10951,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -10233,7 +10968,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -10250,7 +10985,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -10267,7 +11002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -10284,7 +11019,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -10301,7 +11036,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -10318,7 +11053,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -10335,7 +11070,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -10352,7 +11087,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -10369,7 +11104,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -10386,7 +11121,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -10403,7 +11138,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -10420,7 +11155,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -10437,7 +11172,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -10454,7 +11189,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -10471,7 +11206,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -10488,7 +11223,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -10505,7 +11240,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -10522,7 +11257,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -10539,7 +11274,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -10556,7 +11291,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -10573,7 +11308,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -10590,7 +11325,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -10607,7 +11342,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -10624,7 +11359,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -10641,7 +11376,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -10658,7 +11393,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -10675,7 +11410,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -10692,7 +11427,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -10709,7 +11444,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -10726,7 +11461,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -10743,7 +11478,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -10760,7 +11495,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -10777,7 +11512,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -10794,7 +11529,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -10811,7 +11546,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -10828,7 +11563,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -10845,7 +11580,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -10862,7 +11597,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -10879,7 +11614,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -10896,7 +11631,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -10913,7 +11648,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -10930,7 +11665,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -10947,7 +11682,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -10964,7 +11699,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -10981,7 +11716,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -10998,7 +11733,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -11015,7 +11750,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -11032,7 +11767,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -11049,7 +11784,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -11066,7 +11801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -11083,7 +11818,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -11100,7 +11835,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -11117,7 +11852,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -11134,7 +11869,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -11151,7 +11886,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -11168,7 +11903,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -11185,7 +11920,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>5</v>
       </c>
